--- a/excels/rank_100.xlsx
+++ b/excels/rank_100.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="27720" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="27720" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="graph" sheetId="1" r:id="rId1"/>
@@ -521,8 +521,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -561,10 +562,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -989,4239 +993,4240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="3.25" customWidth="1"/>
-    <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
-    <col min="14" max="18" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.25" style="3" customWidth="1"/>
+    <col min="8" max="12" width="14.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="3" customWidth="1"/>
+    <col min="14" max="18" width="14.625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1639014.62612605</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>18852371.016471099</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>4167000.9600296002</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>19566520.485064901</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>17084943.7386772</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>10651641.0062561</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>19461671.282338802</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>13544324.5841271</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>16763820.328913201</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>19963100.338721201</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>7905744.46528506</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>3519747.8379817</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>956689.34408307006</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>7152248.8735735398</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>7064584.9846756402</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2673000.7586672301</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>12549224.1460013</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>8790611.3770239297</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>4883686.43191313</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>5914806.8668341599</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>10153660.264469801</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>14819187.9913458</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>11685920.047645001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>11247324.6350634</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>16085357.4975025</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>4729668.6651704302</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>2926223.4483032199</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>10883753.528879801</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>11186242.6240856</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>4209381.2174568102</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>3644579.29088163</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>18003847.1707398</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1251724.0990083199</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>5016119.7435646001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>4487873.8400671398</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>11813980.022267301</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>11851270.254845301</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>11421252.977297699</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>12709003.675237101</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>16314733.349442</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>2144811.4180290699</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>353360.06958007801</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1921224.1589453199</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>10311167.8618173</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>6241731.8560941201</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>3506486.18301391</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>7288898.5843846798</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>9524681.6624259893</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>5119275.6167516699</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>4905496.2722492199</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>11035753.978767799</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>11466668.518420899</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>16963278.544978999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>10654631.807455</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>22417509.760212101</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>2043203.19361305</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>5114876.8851425601</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>5961801.2592744799</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>503107.51070666302</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>2954053.0691063399</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>243240.15538215599</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>15799914.961479601</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>12147679.242820701</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>10363168.7151784</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>385269.21004700602</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>9481314.1664512102</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>10198544.987732399</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>12106230.731142901</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>5033250.6523361197</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>12243093.5202062</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>1111708.38428664</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>5818552.2271127701</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>350738.09417486098</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>5706280.3403265402</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>1577096.8011775</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>15566000.1160383</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>18928800.1576185</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>16330500.205922101</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>15269100.2217531</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>19261400.163054399</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>15517400.0991106</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>21371900.1909732</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>19945300.144267</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>15893100.1181364</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>23565100.053024199</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>14901100.1311779</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>17236000.193381298</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>14400600.107789</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>15024100.1606225</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>12354429.8641633</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>16657600.271821</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>16919800.178456299</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>15457900.092029501</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>15891300.297904</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>19622300.040125798</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>14496100.1986742</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>15264400.1446485</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>14683000.206017399</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>14727100.231623599</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>20507900.067257799</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>14206000.250458701</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>14385500.002861001</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>15122800.300574301</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>13635900.3123044</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>14665000.101280199</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>16634500.2111673</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>15974300.087690299</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>16087500.117134999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>14363300.0355005</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>14859000.1605033</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>16553300.1675367</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>14855900.197195999</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>16178000.1016855</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>16471900.3811597</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>16628600.130724899</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>15055200.351142799</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>17666500.156164099</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>15156200.2007246</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>13422900.288248001</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>15493400.201225201</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>14909100.1759529</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>16579400.222730599</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>16450800.2421855</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>15590400.127553901</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>16836500.067043301</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>15275400.290584501</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>15698700.2577543</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>15472900.234723</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>15907400.2412319</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>18171900.077843599</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>14635500.1514196</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>15918400.1641511</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>14556900.1951694</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>12766100.1627922</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>14762900.298571501</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>3566047.4715490299</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>17265956.4490625</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>15614144.6494464</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>12665085.613934901</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>10008570.1857938</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>17348802.1849293</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>13393248.954415999</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>10924322.8164114</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>7101057.1896383697</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>29602400.045180298</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>1021774.37731146</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>4937407.19374156</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>447330.57201123203</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>7077750.6183223696</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>8974881.33524465</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1330318.0854718599</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>6756652.2855646601</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>851779.06095361698</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>5246549.9660694599</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>4272817.8681268599</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>8124864.3267938998</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>13531178.1256504</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>16948640.226980601</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>12255581.0904686</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>12079202.4047169</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>909832.92041659297</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>1111296.18688106</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>2628337.5991921402</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>5675014.0420408202</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>1061387.9696784001</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>548669.18231511104</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>9786363.4712836705</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>9755056.5410900097</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>7688337.5564377299</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>9445684.5584604703</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>5248097.0081775105</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>11915233.245976901</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>10331983.7463328</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>12079797.3232457</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>13573891.2572808</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>224809.00792574801</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>1880284.89661955</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>1338310.72484874</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
         <v>942337.54718208301</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>5233712.0900323298</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>720019.65056896198</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>2545478.4137370498</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>3157148.2431967198</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>10677603.542415099</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>5990450.68677139</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>9679303.3718371391</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>13670893.195580401</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>12006074.4642403</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>11933378.493920499</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>12011224.0551736</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>939371.78398108401</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>380934.669398784</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>950040.36794662406</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="3">
         <v>1259146.77007031</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <v>3449631.3019671398</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>242800.03290057101</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1088275.5870037</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1483852.88301396</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>722073.54024171794</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>3736352.2612984101</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>9828065.8557219505</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>9824250.1541464292</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>6826534.2512023402</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>1797878.5993838301</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>11355325.866386101</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>1274297.1621747001</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>1243304.86212182</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>411319.56398057903</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
         <v>894302.70977902401</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>3664555.2275025798</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>14640100.1636981</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>16123300.0754833</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>14753000.1441717</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>15455400.3177165</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>14902100.197982701</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>14889600.0960111</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>16051200.168776499</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>16049900.1422405</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>15249200.1169443</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>15656000.331878601</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>14468000.246167099</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>14730000.2029418</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>14322600.1021623</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="3">
         <v>12449400.2280473</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="3">
         <v>15479200.204276999</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>15455400.3221035</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>16871400.1878976</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>14727000.0677108</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>15116600.1782178</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>16433100.2509593</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>15936900.1916885</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>15277300.101709301</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>14738500.219845699</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>14761300.180196701</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>15691100.1318454</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>14789300.3009557</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>16302800.1652002</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>14682400.3987073</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
         <v>12674800.135374</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>14481600.176167401</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>15511600.246977801</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>15579700.093221599</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>14603500.299596701</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>15421400.042104701</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>14676100.033616999</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>15823300.239205301</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>16509600.1258373</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>14617400.195097901</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>14906600.199151</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>17491800.292873301</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>15756600.185537299</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>15127800.2564191</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>14594500.100088101</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>12566900.2617836</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>15991700.264811501</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>14515100.106644601</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>15535100.104355801</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>14661200.3765106</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>15807100.0883817</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>16002400.0975847</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>15037100.201463699</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>15135600.1118898</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>15345400.104999499</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>16573800.109601</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>14598300.2469301</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>14357800.097680001</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>14547600.268101601</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>14644400.204634599</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>13273900.152897799</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>14943300.1679182</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>6340653.4605808202</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>9958526.0165464804</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>9687803.5447697602</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>10121187.763241</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>18117367.952803601</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>8597409.3751707003</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>14369912.483407</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>9458724.5992350504</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>10829743.921820801</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>11316180.3491704</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>1150673.5028455199</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>6921084.7184479199</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>1477137.1220130899</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>6931320.9931905204</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>5124294.3581442796</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>503606.560665845</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>6555351.2517883703</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>2730322.3190329</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>10596879.7672564</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>7568888.6965718204</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>5609957.1575636799</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>14438927.521746101</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>10734737.012450401</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>11029783.009963</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>5507023.6219322598</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>363848.91712427099</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>5035544.8217689898</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>1817892.50796508</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>4606092.1738145296</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>2797979.06497502</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>442268.98729848798</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>4953817.6323304102</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>4875319.1806957703</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>10891772.891915301</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>1430417.1842136299</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>9485061.5130522195</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>9575741.5226237699</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>9945367.8259358406</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>10013425.1490054</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>15029867.655724</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>1710267.2904052699</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>930029.45241069701</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>535402.16804289795</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="3">
         <v>2008450.5943193401</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>1055907.01162457</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>1898726.7052412</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>468825.59458637203</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>4964671.5942604505</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>5928051.7551455498</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>1560352.7145786199</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>9474241.6084530298</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>9936886.6413545609</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>11116522.006908599</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>9885724.5118453503</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>10103670.3245093</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>562192.46425557102</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>5186594.2276463499</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>200547.816072702</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="3">
         <v>588293.05228257098</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="3">
         <v>359335.95032453502</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>160100.566045999</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>836886.97412228503</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>297110.282009124</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>204999.039135217</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>5223830.5738036605</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>5072031.9915823899</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>5576020.0868124897</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>1095838.43180227</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>90085.342691421494</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>13347958.9019701</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>348946.11779046</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>1148633.66569781</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>151343.37693405099</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="3">
         <v>674583.65638184501</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="3">
         <v>604931.84275221801</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>14086700.2026319</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>14615200.136184599</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>14414300.208902299</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>14881600.257944999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>17148900.264215399</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>14904200.180149</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>14577400.273442199</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>15981100.1795053</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>14703800.1007556</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>16206400.1874923</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>14586700.157284699</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>16097100.105834</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>14913500.2022266</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>13496400.195837</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
         <v>14778900.312829001</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>15422900.127983</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>14915000.118756199</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>15356900.071763899</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>15743200.1796245</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>15581800.305318801</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>15291200.274300501</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>14940300.189757301</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>14257200.1268625</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>14732500.2743959</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>16757900.191664601</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>14385900.2887487</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>14376400.115299201</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>14232500.3012418</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="3">
         <v>14329300.1684188</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="3">
         <v>15317000.153446101</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>14568700.1734733</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>14498600.3448247</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>15080900.2772331</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>14365800.166916801</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>15459800.0703096</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>15681300.194263401</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>14086200.1610994</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>15031200.047540599</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>14210000.1410484</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>16604900.299787501</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <v>15630200.200057</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <v>15396700.1571893</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>14479000.3008365</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="3">
         <v>13969100.184226001</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="3">
         <v>14656400.1027584</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>14424000.276350901</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>14370000.22161</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>14479000.254726401</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>15153700.286865201</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>14850700.288653299</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>15235000.1022815</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>14074600.2103805</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>14556900.1803398</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>16518000.2195358</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>15031800.305676401</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>14394200.1374483</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <v>15872200.210976601</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>14507000.3999948</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="3">
         <v>12535200.1711368</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="3">
         <v>17562900.309586499</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>12108975.5697126</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>3818193.4229574199</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>12902407.3685336</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>11355629.221093399</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>955215.98587584496</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>10505619.3051803</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>11019745.219087301</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>10471620.4855031</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>13277293.856424799</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>19146669.829222601</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>860115.00943708397</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <v>941699.46660160995</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>1251432.05018019</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="3">
         <v>11886171.6400475</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="3">
         <v>5601906.3523485595</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>2187353.9655742599</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>1078954.5507709901</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>687830.28093051899</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>9643288.8119001295</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>554488.750652074</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>12746797.3568921</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>11327558.410971399</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>10970785.390205801</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>9807710.0609223805</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>11142558.0212323</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>738314.59415769496</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <v>1102750.7880001001</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>1389642.8178951701</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="3">
         <v>4828290.7107329303</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="3">
         <v>1010841.6619343699</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>459650.50310492498</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>6210003.3245744696</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1120502.44168758</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>10146772.9510452</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>220352.14101529101</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>9907925.7161533795</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>11923113.670219099</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>10876974.8217778</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>7279579.0980160199</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>15496161.191302299</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <v>852757.04916048003</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <v>1721243.7814154599</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>106599.99921441</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="3">
         <v>2810423.22667241</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="3">
         <v>2624654.1888663699</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>531542.95477175701</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>5292590.8036646796</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>5338520.4625728102</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>5599741.5441887304</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>4317102.30302619</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>5294279.5541691696</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>9762942.5036430303</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>11230050.013986999</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>11243609.127186</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>10463631.304589</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <v>274551.80048966402</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <v>1735209.88233304</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <v>1269742.83927464</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="3">
         <v>398476.351535558</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="3">
         <v>2871659.2996799899</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>641619.21735024406</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>524626.00520300795</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>872447.82222795405</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>324200.94149112701</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>1947276.2400188399</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>4930244.6486563599</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>1000444.20299124</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>1075408.8165407099</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>664798.15271854401</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>6265409.0178761398</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>712777.99799823703</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <v>397903.49944329198</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>670049.30379986705</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="3">
         <v>283955.52215385402</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="3">
         <v>466938.47423648799</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>14642000.3035545</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>14923900.334239</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>14724200.2007246</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>14957200.087046601</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>17796100.208926201</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>14585500.0593662</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>15562400.2908468</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>14172900.200200001</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>16818100.0510692</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>16051000.231099101</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <v>15357500.191593099</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <v>14499400.613903999</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>15437100.101590101</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="3">
         <v>13383800.037050201</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="3">
         <v>14977800.153517701</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>14206700.3225803</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>14492200.2014398</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>14252400.109291</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>14422700.291013701</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>17239200.233602501</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>14734100.268936099</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>14469200.3391742</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>14194300.2156257</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>15211600.177264201</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>16974700.202798799</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <v>14396300.116086001</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <v>14328600.291872</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>14337700.10221</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="3">
         <v>12991500.218963601</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="3">
         <v>16889300.184082899</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>14680700.262022</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>14652600.2008438</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>14295100.2502441</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>15106300.3336668</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>15024900.1320838</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>15408700.2775192</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>14374800.212502399</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>14384100.200247699</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>14962400.164389599</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>18684700.157475401</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <v>14369000.1173496</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="3">
         <v>15481800.3895521</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>15125500.3010749</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="3">
         <v>12777900.2253532</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="3">
         <v>14795800.2112865</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>14320900.155734999</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>14397800.1152038</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>15191700.2773761</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>14910400.0594377</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>14926200.394606501</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>15485600.194787901</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>15711100.1720428</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>14145600.164318001</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>14745400.075817101</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>15440600.1999855</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <v>14432800.2944707</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <v>14322500.082230501</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <v>15263700.003457</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="3">
         <v>12774600.0558376</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="3">
         <v>14541700.355410499</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>1121086.4029683999</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>687816.41905713</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>16212400.3456592</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>11952771.704123201</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>10810611.5546469</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>5858436.0110492697</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>11884639.999012901</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>16988500.276660901</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>12151099.9651103</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>16818400.201439802</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <v>1575640.4362687999</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <v>414790.11338353099</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <v>11686674.8319561</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="3">
         <v>1569630.4644629899</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="3">
         <v>150951.187047004</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>388126.32589459402</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>5945779.7483055498</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>11955109.582923399</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>12868928.886330601</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>5795478.4219598696</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>10637988.211142501</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>10963040.672702</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>13201224.8392777</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>15286405.9906497</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>6975013.0751652699</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <v>2962489.7654404598</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="3">
         <v>5072276.6359536601</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="3">
         <v>418953.69099616999</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="3">
         <v>4048202.1278703199</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="3">
         <v>394795.764554739</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>849030.39798903395</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>630788.46599531104</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>1429118.3928749501</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>9915427.5232455693</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>9092598.6814398691</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>10534637.659796899</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>5246767.1928853896</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>10296092.5773274</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>10279592.2162809</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>9792189.8244805299</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <v>1552847.4875709999</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="3">
         <v>521753.537638187</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="3">
         <v>674167.34403657902</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="3">
         <v>825582.40304684604</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="3">
         <v>801017.559920787</v>
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>1047851.1009700201</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>724203.32211756695</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>390990.38554787601</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>5110685.7035176698</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>491345.75995111401</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>9529683.4489257298</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>9656661.3318564892</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>9642622.6628856603</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>9718483.86916852</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>10973398.9408307</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <v>610634.71369433403</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <v>380414.42600417102</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="3">
         <v>1593412.3019564101</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="3">
         <v>3858750.8613102399</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="3">
         <v>3587285.3415679899</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>390366.19897889998</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>697612.49093103397</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>75574.338710308002</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>204816.80336451501</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>2098297.61591005</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>387654.79603433597</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>858033.12796854903</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>365550.59401822003</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>117331.046667337</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>1383006.66699433</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <v>90047.551700830401</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="3">
         <v>241479.23134279199</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="3">
         <v>54626.064084529797</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="3">
         <v>343646.33793473197</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="3">
         <v>353624.339958667</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>14821100.1992702</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>14824600.000596</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>14620500.264739901</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>14179300.2004623</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>16816600.0644922</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>14422800.148868499</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>14824200.0805139</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>14579300.1867532</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>14600100.239753701</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>15618900.201034499</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <v>14313000.1237392</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <v>14476500.201034499</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="3">
         <v>14884600.102114599</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="3">
         <v>12092200.233221</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="3">
         <v>14864800.3975391</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>14528800.399947099</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>14546600.149250001</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>14176700.2840518</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>15371800.142788799</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>17449000.157713801</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>15024500.350022299</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>14518200.2393007</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>14664100.095939601</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>15168300.276112501</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>15582100.201869</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="3">
         <v>14965800.253129</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="3">
         <v>14517400.3000974</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="3">
         <v>14388300.1028776</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="3">
         <v>12093500.217318499</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="3">
         <v>15575600.245642601</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>14768700.399708699</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>14361300.2304553</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>14156000.2042531</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>14639100.2673625</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>15523400.103163701</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>15364000.2670049</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>14256900.3033638</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>14285400.146293599</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>14199300.2994298</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>16304400.200510001</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>14284300.240635799</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <v>14916300.2987861</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="3">
         <v>14890900.1025915</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="3">
         <v>12165100.149059201</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="3">
         <v>16139900.1630306</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>14181100.299954399</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>14290200.2392768</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>14427600.1996278</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>14131600.2235412</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>15497500.201034499</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>14442100.111555999</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>15206200.184869699</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>14869600.1069784</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>15240600.0936746</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>15504000.3011465</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <v>14539000.0255823</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="3">
         <v>14436400.1821994</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="3">
         <v>15703900.099944999</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="3">
         <v>12167100.283741901</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="3">
         <v>14728500.268125501</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>9962553.4856741391</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>15863016.375404499</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>13077824.9677414</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>15912000.2165794</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>3865417.9020831501</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>12371421.0393517</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>12462014.220393799</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>19543545.323298201</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>16272900.195097901</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>12011212.335933199</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>8974880.5685210191</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <v>7192383.31622505</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="3">
         <v>10564820.809128201</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="3">
         <v>713980.77502417495</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="3">
         <v>1320303.36161017</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>391025.010008335</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>733561.81863021804</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>17581883.309183501</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>14499379.7164902</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>755301.95606827701</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>9847833.4273037892</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>10280046.8335716</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>17396200.181674901</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>18227570.253710698</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>5623949.8824946797</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="3">
         <v>1189927.07421302</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="3">
         <v>5637791.5556159001</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="3">
         <v>496624.83121061302</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="3">
         <v>767970.78175330104</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="3">
         <v>243351.42006420999</v>
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>347049.81690716703</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>164588.963927984</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>5753220.3176784497</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>533474.228536129</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>2642584.8450117102</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>10871575.257149899</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>10207766.6255011</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>9943574.1197175905</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>9797460.3434495907</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>4931680.4696514597</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <v>650342.06200122798</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <v>549463.09520077705</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="3">
         <v>1147185.9890856701</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="3">
         <v>216455.59758043199</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="3">
         <v>166153.811129093</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>381762.752948999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>856887.47353601397</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>587068.25892233802</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>456169.79253315902</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>2074120.0419795499</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>9727563.3687462807</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>9752239.4136526491</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>9595111.7231278401</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>9648638.8292910997</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>10539606.745100901</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <v>141800.09101033199</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="3">
         <v>211130.24327373499</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="3">
         <v>245016.394219398</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="3">
         <v>447905.13594961102</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="3">
         <v>1455860.1059677601</v>
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>383304.49889373698</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>174309.87316441501</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>332148.16833662899</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>64089.881857633503</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>2231058.88646721</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>749995.98958539905</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>721739.56436109496</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>138381.33664870201</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>1547520.9115037899</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>294468.81582427002</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <v>682895.56595587695</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="3">
         <v>52695.363151550198</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="3">
         <v>658634.59910798003</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="3">
         <v>172715.28548359801</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="3">
         <v>319152.93810796703</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>14516900.100135799</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>14565800.098586001</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>14410400.158977499</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>14530500.118517799</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>14548600.261735899</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>14540600.198817199</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>15245800.261664299</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>14538600.012826901</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>14238000.331926299</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>14671900.101637799</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <v>14130900.2777576</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="3">
         <v>14502200.2996206</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="3">
         <v>14575700.2004623</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="3">
         <v>12593500.2067327</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="3">
         <v>14648200.200986801</v>
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>14803600.200009299</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>14488400.265335999</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>14159700.202846499</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>14596100.398397399</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>14994700.2710342</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>14753000.101947701</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>14494600.050926199</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>14486300.2199411</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>14893200.2619504</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>16483100.237536401</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="3">
         <v>14192300.1064777</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="3">
         <v>14294000.300145101</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="3">
         <v>14390600.200629201</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="3">
         <v>12153200.1375436</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="3">
         <v>15256800.300812701</v>
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>14342500.299882799</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>14650400.1190423</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>13997500.261330601</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>14128400.328206999</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>16246900.122618601</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>14374100.123691499</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>14596700.252914401</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>15351900.1299858</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>14697300.1119613</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>14890900.2155542</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="3">
         <v>14255100.200653</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="3">
         <v>14237800.1032352</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="3">
         <v>14771900.202441201</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="3">
         <v>12231100.2655506</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="3">
         <v>15085400.300145101</v>
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>14323100.299715901</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>14744400.0710725</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>14033800.154352101</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>14466500.1902103</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>14792200.1072645</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>14694400.259208599</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>14477000.2693891</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>14457400.2907991</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>14829800.1067161</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>14775600.1212596</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="3">
         <v>14379200.292253399</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="3">
         <v>14425400.1997947</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="3">
         <v>14353200.300001999</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="3">
         <v>12043300.0591754</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="3">
         <v>15486100.058913199</v>
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>14602471.8449926</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>12827399.3187379</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>11954537.783062199</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>15924500.1476526</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>8302210.22639322</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>11322748.5164432</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>10392198.1361167</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>14688000.2435684</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>11279286.899097901</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>12107155.516484199</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="3">
         <v>12023418.1579256</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="3">
         <v>7704237.9070549002</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="3">
         <v>1244800.4422636</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="3">
         <v>8793383.8151757699</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="3">
         <v>2841001.78467059</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>10046395.1301436</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>10599675.616981</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>10503749.801770199</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>12093026.486824701</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>1457769.99504995</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>15452600.194621</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>11585490.794234701</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>17344259.956082799</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>10801480.1592228</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>12745453.5831933</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="3">
         <v>3024523.2140183402</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="3">
         <v>5752924.2730338499</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="3">
         <v>4378677.7520944998</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="3">
         <v>5493602.6194350701</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="3">
         <v>1331998.4329788601</v>
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>834744.12602496101</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>347013.53850221599</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>5401016.0268278103</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>11502742.657908401</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>254254.46904087</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>9715325.0129656792</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>9622818.5811545793</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>16860198.083685599</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>14389600.102019301</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>11820652.7856407</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="3">
         <v>160559.64492559401</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="3">
         <v>279056.21414756699</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="3">
         <v>128536.056813955</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="3">
         <v>1517376.7942001801</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="3">
         <v>359558.263988733</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>155061.30504322</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>523914.53039669897</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>1292296.1391646799</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>1176151.6695029701</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>2033082.2805387899</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>9900012.7865610104</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>10110380.0147266</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>7606994.1338644</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>10001254.6450202</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>10383494.4271564</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="3">
         <v>388395.63306760701</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="3">
         <v>1571835.52306556</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="3">
         <v>2056688.2981688899</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="3">
         <v>917866.81416439998</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="3">
         <v>416543.18292188598</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>72101.906993627505</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>296322.14836263598</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>291158.726846456</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>592476.17871713603</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>828436.52530837001</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>227368.57997870399</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>442044.50245046598</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>945326.35631346703</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>652193.43685936905</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>427330.46373391099</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="3">
         <v>59001.081963777498</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="3">
         <v>163676.97339010201</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="3">
         <v>62432.897213459</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="3">
         <v>237135.231844186</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="3">
         <v>296267.41393208498</v>
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>14324900.2001762</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>14335300.153875301</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>14531200.338768899</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>14917800.2321958</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>14784500.2005815</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>15276400.2417325</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>14389700.200748401</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>14197700.095701201</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>15804600.2534866</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>15138300.2510547</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <v>14374500.290703701</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="3">
         <v>14154300.201296801</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="3">
         <v>14395200.299549101</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="3">
         <v>12845100.1133203</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="3">
         <v>14585300.3002405</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>14397100.3996133</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>14647500.2832174</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>14013400.1739501</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>14695100.047683701</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>15268900.2382755</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>14740300.1774072</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>14943900.187587701</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>14435600.1822471</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>15740502.7564764</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>14844700.2997398</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="3">
         <v>14018200.2221107</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="3">
         <v>14195100.2016067</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="3">
         <v>14696500.200200001</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="3">
         <v>12198100.256752901</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="3">
         <v>14181200.101232501</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>14345000.2009391</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>14496400.247073101</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>14430100.2238988</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>15049100.3189086</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>15011500.170636101</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>14427800.185585</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>14274300.1387596</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>14355400.224113399</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>14701100.3581047</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>16097300.157523099</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="3">
         <v>14254700.199770899</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="3">
         <v>14312600.235939</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="3">
         <v>14164000.2075433</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="3">
         <v>11793800.248932799</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="3">
         <v>14958100.388479199</v>
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>14252600.2991676</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>14359900.0894069</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>14188400.278449001</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>15076000.154399799</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>15184600.301813999</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>14226400.3363609</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>14973800.2119064</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>14623600.2019166</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>15299800.1089334</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>15305400.1998662</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <v>14211600.301217999</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="3">
         <v>15106500.2517223</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="3">
         <v>14105200.1036405</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="3">
         <v>12421100.0815391</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="3">
         <v>17066500.100183401</v>
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>20026200.200009301</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>17535743.250509501</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>15216200.201272899</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>9903093.9948971197</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>11263398.779818701</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>16792766.1944503</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>19156100.200509999</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>22201000.092124902</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>31068800.008034699</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>10366537.551228199</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="3">
         <v>177581.46267533299</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="3">
         <v>12597552.826053301</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="3">
         <v>8192612.0970282499</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="3">
         <v>4293934.25685954</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="3">
         <v>1587393.0639226399</v>
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>4875313.4767487003</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>6994819.7604799196</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>15406347.7900357</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>10514153.8976514</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>6591093.8710861197</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>13690891.271708</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>15306100.119256901</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>10253806.8758294</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>13705829.960423701</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>11207498.657349501</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="3">
         <v>1756441.7829942701</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="3">
         <v>2551806.6280407901</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="3">
         <v>4632878.2980279904</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="3">
         <v>6457689.4618842602</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="3">
         <v>1678375.91400623</v>
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>5203255.8521587802</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>910093.559447526</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>14496830.387086799</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>7571033.25837659</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>1753398.2489902901</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>9645551.5489153806</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>9704096.9352898598</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>19783104.6790401</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>10088782.6596143</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>10258663.379021101</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="3">
         <v>5490096.4546449101</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="3">
         <v>1956125.1999170701</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="3">
         <v>147129.639931201</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="3">
         <v>9462690.1467466298</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="3">
         <v>306923.84303998901</v>
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>5664516.7707705498</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>9572117.0688710194</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>3850722.4628756</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>992824.26535439398</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>1417406.92295336</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>11450737.6697008</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>9762856.1908702794</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>10051383.737767201</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <v>9904642.4868166391</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="3">
         <v>6142564.7413358605</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="3">
         <v>89066.857899904193</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="3">
         <v>229622.112628459</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="3">
         <v>916744.57697105396</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="3">
         <v>129251.21115684501</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="3">
         <v>277364.68389582599</v>
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>48384.400047302202</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>58135.946552991802</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>6792569.5965335304</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>364037.82507753302</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>52589.964896917299</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>193194.43300223301</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>108388.846978425</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="3">
         <v>140038.72892618101</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <v>408419.180074214</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="3">
         <v>1413270.79509282</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="3">
         <v>86659.223967075304</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="3">
         <v>45172.156470775597</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="3">
         <v>648164.34997415496</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="3">
         <v>159229.12979960401</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="3">
         <v>1004633.48090124</v>
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>14901400.3993749</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>14540600.123143099</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>14377100.369667999</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>14741300.2089977</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>15939100.131440099</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>14380400.343298901</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>14727100.013613701</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="3">
         <v>14507600.1038789</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <v>14576400.161266301</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>15993800.2126693</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="3">
         <v>14115100.1638174</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="3">
         <v>14334600.109028799</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="3">
         <v>14438600.1171588</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="3">
         <v>12303500.2608776</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="3">
         <v>14008600.2179622</v>
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>14644700.100564901</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>14614100.8046865</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>14103800.2073287</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>14348600.2204179</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>16499700.144314701</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>14631600.237345601</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>14392600.2161741</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="3">
         <v>14581500.305485699</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <v>14488100.0138044</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="3">
         <v>14691700.191545401</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="3">
         <v>14472900.3996133</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="3">
         <v>14925100.3676176</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="3">
         <v>14316300.2010107</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" s="3">
         <v>12309700.1963138</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="3">
         <v>13987500.3008365</v>
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>14227900.100183399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>14442900.1895427</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>14357800.1724004</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>14576500.057101199</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>14441500.223517399</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>14099000.278878201</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>14396200.105619401</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="3">
         <v>14448400.236749601</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <v>14375200.1418113</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="3">
         <v>15013600.374245601</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="3">
         <v>14183100.292468</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="3">
         <v>14350000.2031803</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="3">
         <v>14204300.300025901</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="3">
         <v>12571800.243711401</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="3">
         <v>14352700.2076625</v>
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>14407400.299906701</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>14429000.1276969</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>14549300.088834699</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>14732200.619673699</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>15049200.1014471</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>14452800.2216815</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>14392500.302958401</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>14157300.1508951</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>14638000.2292394</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>14380100.2182722</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="3">
         <v>14220400.211668</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="3">
         <v>14059900.177431099</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="3">
         <v>14569700.201869</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="3">
         <v>12508700.253558099</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="3">
         <v>14516300.228500299</v>
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>26370000.200057</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>16982761.074137401</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>16809000.160408001</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>15212500.1919984</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>7428818.7750773402</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="3">
         <v>17288900.165414799</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>14123394.3111169</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="3">
         <v>20025900.1004695</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <v>21082800.365591001</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="3">
         <v>14585121.1783292</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="3">
         <v>11110110.8119142</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="3">
         <v>28848640.6372215</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="3">
         <v>12069234.291116901</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="3">
         <v>11596807.238001499</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="3">
         <v>1510399.47151112</v>
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>6518398.1767744999</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>9524717.2241885606</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>547063.18576025905</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>15846873.837433301</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>2774487.91102838</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>17546400.202417299</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>12572676.623452401</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="3">
         <v>12491005.519519299</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <v>22925400.1014947</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="3">
         <v>12437067.5448358</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="3">
         <v>942962.04114699306</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="3">
         <v>2668471.9128279602</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="3">
         <v>10039521.740770999</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="3">
         <v>1067852.4254651</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="3">
         <v>933672.09900164604</v>
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>10828065.382866601</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>9689084.3216304705</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>10136900.4347593</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>4965988.2240643501</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>8913083.8705067597</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>11021124.244164901</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>13525523.529139901</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="3">
         <v>14206985.2776675</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>15258400.132536801</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>10509727.605774401</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="3">
         <v>261462.539946556</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="3">
         <v>4893071.0707216198</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="3">
         <v>6809013.0448467704</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="3">
         <v>5117657.1968583995</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="3">
         <v>2192407.5558896</v>
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>2855515.0719718901</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>279716.30225849099</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>4922543.9344539596</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>5189276.1195049202</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>2197973.4680919601</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>11843255.7255673</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>10092950.8647677</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="3">
         <v>12077134.031446399</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <v>9604123.15911722</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="3">
         <v>8330175.67335271</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="3">
         <v>1985168.56899356</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="3">
         <v>4378402.7800858002</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="3">
         <v>5285209.4663238497</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="3">
         <v>660251.56785511901</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="3">
         <v>143449.40008807101</v>
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>9531961.2850382291</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>568382.61791133799</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>5336041.0757591696</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>475423.38319396903</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>323890.219999074</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>10192227.0028343</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>681453.32710575999</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="3">
         <v>14193000.1159191</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <v>215273.24490976299</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="3">
         <v>1876157.9270353301</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="3">
         <v>4849707.5110306703</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="3">
         <v>448501.71499395301</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="3">
         <v>136131.68473863599</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="3">
         <v>75295.779142141299</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="3">
         <v>275828.13592386199</v>
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>14239000.299882799</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>14376000.241494101</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>14409200.1909971</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>14759000.221300101</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>15907400.1562356</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>14525500.553512501</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>14509000.1858472</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="3">
         <v>14633400.104331899</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>15144000.1998186</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>16141300.2993822</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="3">
         <v>14181600.3811359</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="3">
         <v>13973600.221824599</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="3">
         <v>14273000.201654401</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="3">
         <v>12602400.2300977</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="3">
         <v>14558800.2100944</v>
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>14377400.3000974</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>14330400.1374959</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>14374000.164222701</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>14172900.247859901</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>14479600.1126289</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="3">
         <v>14188400.247502301</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <v>14333900.2240896</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="3">
         <v>14386400.134801799</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <v>14430800.202298099</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="3">
         <v>14465700.2999782</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="3">
         <v>14739700.2486705</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="3">
         <v>14316300.1820802</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="3">
         <v>16345400.002670201</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="3">
         <v>12364400.158500601</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="3">
         <v>14623400.012278499</v>
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>14364400.0998735</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>14764900.184750499</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>14306800.348162601</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>14373700.241064999</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>15962500.308966599</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>14313000.323939299</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>14135200.2646446</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="3">
         <v>14662800.023651101</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>14353900.2335786</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>14568900.1014232</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="3">
         <v>14698200.1774549</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="3">
         <v>14323000.2544879</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="3">
         <v>14537900.3985881</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="3">
         <v>12672400.218153</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="3">
         <v>14925100.20442</v>
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>14125300.1004695</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>14116900.156879401</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>14489600.092411</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>14296300.2908468</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>14728000.2031326</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="3">
         <v>14289500.1957178</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>14241700.0854492</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="3">
         <v>14105300.0918149</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>14759300.028443299</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="3">
         <v>16001200.306749299</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="3">
         <v>14057400.3275632</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="3">
         <v>14246900.256872101</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="3">
         <v>14327700.200796099</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="3">
         <v>12616300.2324581</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="3">
         <v>14722400.182533201</v>
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <f>AVERAGE(B2:B82)</f>
         <v>8708865.7220457383</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <f t="shared" ref="C84:R84" si="0">AVERAGE(C2:C82)</f>
         <v>10026245.994885711</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <f t="shared" si="0"/>
         <v>10216688.115613816</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <f t="shared" si="0"/>
         <v>10800495.064127235</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <f t="shared" si="0"/>
         <v>9547187.3545162622</v>
       </c>
-      <c r="G84" s="2" t="e">
+      <c r="G84" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="3">
         <f t="shared" si="0"/>
         <v>11948274.705065839</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="3">
         <f t="shared" si="0"/>
         <v>12315715.652601942</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="3">
         <f t="shared" si="0"/>
         <v>12886356.037903564</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="3">
         <f t="shared" si="0"/>
         <v>12502484.881223759</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="3">
         <f t="shared" si="0"/>
         <v>13308078.700014612</v>
       </c>
-      <c r="M84" s="2" t="e">
+      <c r="M84" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="3">
         <f t="shared" si="0"/>
         <v>7568215.2392512234</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="3">
         <f t="shared" si="0"/>
         <v>8409421.801878633</v>
       </c>
-      <c r="P84" s="2">
+      <c r="P84" s="3">
         <f t="shared" si="0"/>
         <v>7989093.0095684677</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="Q84" s="3">
         <f t="shared" si="0"/>
         <v>7573908.9788085371</v>
       </c>
-      <c r="R84" s="2">
+      <c r="R84" s="3">
         <f t="shared" si="0"/>
         <v>7788398.939078684</v>
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="B86">
+      <c r="B86" s="3">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="B87" s="1">
+      <c r="B87" s="4">
         <f>AVERAGE(B84+H84+N84)</f>
         <v>28225355.6663628</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="4">
         <f t="shared" ref="C87:F87" si="1">AVERAGE(C84+I84+O84)</f>
         <v>30751383.449366286</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="4">
         <f t="shared" si="1"/>
         <v>31092137.163085848</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="4">
         <f t="shared" si="1"/>
         <v>30876888.924159531</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="4">
         <f t="shared" si="1"/>
         <v>30643664.993609559</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B87:F87">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5231,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9436,23 +9441,23 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="B87" s="2">
+      <c r="B87" s="5">
         <f>AVERAGE(B84+H84+N84)</f>
         <v>584864340.86240649</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="5">
         <f t="shared" ref="C87:F87" si="1">AVERAGE(C84+I84+O84)</f>
         <v>401827006.60733223</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="5">
         <f t="shared" si="1"/>
         <v>361376755.11237752</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="5">
         <f t="shared" si="1"/>
         <v>240206908.41703886</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="5">
         <f t="shared" si="1"/>
         <v>24619860.121902484</v>
       </c>
@@ -9470,13 +9475,16 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD87"/>
+      <selection activeCell="B87" sqref="B87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="2.75" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="3.625" customWidth="1"/>
@@ -13674,30 +13682,30 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <f>AVERAGE(B84+H84+N84)</f>
         <v>28447499.307616014</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="4">
         <f t="shared" ref="C87:F87" si="1">AVERAGE(C84+I84+O84)</f>
         <v>28888410.823936429</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="4">
         <f t="shared" si="1"/>
         <v>32600816.020255741</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="4">
         <f t="shared" si="1"/>
         <v>33314230.807086397</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="4">
         <f t="shared" si="1"/>
         <v>35353140.330869988</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B87:F87">
-    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
